--- a/Currencies/Currencies.xlsx
+++ b/Currencies/Currencies.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="12-15-2022" sheetId="1" r:id="rId1"/>
+    <sheet name="12-25-2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -541,13 +541,13 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>1.0703</v>
+        <v>1.063</v>
       </c>
       <c r="D2">
-        <v>0.0021</v>
+        <v>0.0026</v>
       </c>
       <c r="E2">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -558,13 +558,13 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>136.713</v>
+        <v>132.79</v>
       </c>
       <c r="D3">
-        <v>1.298</v>
+        <v>0.438</v>
       </c>
       <c r="E3">
-        <v>0.96</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -575,13 +575,13 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>1.2314</v>
+        <v>1.2042</v>
       </c>
       <c r="D4">
-        <v>-0.0115</v>
+        <v>0.0005</v>
       </c>
       <c r="E4">
-        <v>-0.93</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -592,13 +592,13 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>0.6746</v>
+        <v>0.672</v>
       </c>
       <c r="D5">
-        <v>-0.012</v>
+        <v>0.004</v>
       </c>
       <c r="E5">
-        <v>-1.74</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -609,13 +609,13 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>0.6375999999999999</v>
+        <v>0.6294</v>
       </c>
       <c r="D6">
-        <v>-0.0076</v>
+        <v>0.0041</v>
       </c>
       <c r="E6">
-        <v>-1.18</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -626,13 +626,13 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>146.319</v>
+        <v>140.989</v>
       </c>
       <c r="D7">
-        <v>1.701</v>
+        <v>0.775</v>
       </c>
       <c r="E7">
-        <v>1.18</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -643,13 +643,13 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>168.369</v>
+        <v>160.051</v>
       </c>
       <c r="D8">
-        <v>0.079</v>
+        <v>0.795</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -660,13 +660,13 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>0.8689</v>
+        <v>0.8809</v>
       </c>
       <c r="D9">
-        <v>0.009900000000000001</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E9">
-        <v>1.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -677,13 +677,13 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>1.457</v>
+        <v>1.4432</v>
       </c>
       <c r="D10">
-        <v>0.0108</v>
+        <v>-0.0022</v>
       </c>
       <c r="E10">
-        <v>0.75</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -694,13 +694,13 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>10.9301</v>
+        <v>11.1818</v>
       </c>
       <c r="D11">
-        <v>0.07729999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -711,13 +711,13 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>0.9893</v>
+        <v>0.9906</v>
       </c>
       <c r="D12">
-        <v>0.0027</v>
+        <v>0.004</v>
       </c>
       <c r="E12">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -728,13 +728,13 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>406.78</v>
+        <v>399.33</v>
       </c>
       <c r="D13">
-        <v>2.35</v>
+        <v>-0.63</v>
       </c>
       <c r="E13">
-        <v>0.58</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -745,13 +745,13 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>146.319</v>
+        <v>140.989</v>
       </c>
       <c r="D14">
-        <v>1.701</v>
+        <v>0.775</v>
       </c>
       <c r="E14">
-        <v>1.18</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -762,13 +762,13 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>6.9602</v>
+        <v>6.9875</v>
       </c>
       <c r="D15">
-        <v>0.0104</v>
+        <v>0.0046</v>
       </c>
       <c r="E15">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -779,13 +779,13 @@
         <v>41</v>
       </c>
       <c r="C16">
-        <v>7.7717</v>
+        <v>7.8041</v>
       </c>
       <c r="D16">
-        <v>-0.0003</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E16">
-        <v>-0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -796,13 +796,13 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1.3545</v>
+        <v>1.3517</v>
       </c>
       <c r="D17">
-        <v>0.0092</v>
+        <v>0.0007</v>
       </c>
       <c r="E17">
-        <v>0.6899999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -813,13 +813,13 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>82.88</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="D18">
-        <v>0.373</v>
+        <v>-0.11</v>
       </c>
       <c r="E18">
-        <v>0.45</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -830,13 +830,13 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <v>19.8061</v>
+        <v>19.351</v>
       </c>
       <c r="D19">
-        <v>0.1882</v>
+        <v>-0.186</v>
       </c>
       <c r="E19">
-        <v>0.96</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -847,13 +847,13 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>55.82</v>
+        <v>55.215</v>
       </c>
       <c r="D20">
-        <v>0.12</v>
+        <v>0.015</v>
       </c>
       <c r="E20">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -864,13 +864,13 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>15614</v>
+        <v>15589</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -881,13 +881,13 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>34.97</v>
+        <v>34.78</v>
       </c>
       <c r="D22">
-        <v>0.482</v>
+        <v>0.003</v>
       </c>
       <c r="E22">
-        <v>1.4</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -898,13 +898,13 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>4.415</v>
+        <v>4.422</v>
       </c>
       <c r="D23">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -915,13 +915,13 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>17.3589</v>
+        <v>17.0371</v>
       </c>
       <c r="D24">
-        <v>0.1878</v>
+        <v>-0.1112</v>
       </c>
       <c r="E24">
-        <v>1.09</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -932,13 +932,13 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>64.29300000000001</v>
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>-0.454</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>-0.7</v>
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
